--- a/biology/Botanique/Vouacapoua_americana/Vouacapoua_americana.xlsx
+++ b/biology/Botanique/Vouacapoua_americana/Vouacapoua_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vouacapoua americana est une espèce d'arbre de la famille des Caesalpiniaceae selon la classification classique, ou de celle des Fabaceae, sous-famille des Caesalpinioideae selon la classification phylogénétique.
-C'est une essence de demi-lumière, poussant en forêt de terre ferme et atteignant 30 à 35 m de hauteur[2]. Elle est souvent répartie en aggrégats plus denses[3].
+C'est une essence de demi-lumière, poussant en forêt de terre ferme et atteignant 30 à 35 m de hauteur. Elle est souvent répartie en aggrégats plus denses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane cet arbre est appelé le « wacapou » dans la langue courante (« bounaati » en paramaka) ; il s'appelle « acapu » ou « ritangueira » au Brésil, « wacapoe » au Suriname, « sara » ou « tatbu » et au Guyana sarebebeballi[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane cet arbre est appelé le « wacapou » dans la langue courante (« bounaati » en paramaka) ; il s'appelle « acapu » ou « ritangueira » au Brésil, « wacapoe » au Suriname, « sara » ou « tatbu » et au Guyana sarebebeballi.
 Synonyme : Andira aubletii Aubl.
 </t>
         </is>
@@ -546,14 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition géographique
-Cette espèce se trouve en forêt tropicale humide à l'est du plateau des Guyanes et à l'aval du bassin amazonien[3] : au Brésil, en Guyane, au Guyana et au Suriname. Elle est menacée par la disparition de cet habitat naturel et la surexploitation des ressources forestières[5].
-Temps de vie
-Son temps de vie est relativement court.
-Hauteur
-L'arbre peut mesurer une hauteur de 30 à 35 mètres.
-Feuille et fleur
-La feuille est composé imparipennée. Les folioles sont opposées et présentent une glande à la base des pétioles appariés. Ses fleurs sont petites, jaune et odorantes[6].
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve en forêt tropicale humide à l'est du plateau des Guyanes et à l'aval du bassin amazonien : au Brésil, en Guyane, au Guyana et au Suriname. Elle est menacée par la disparition de cet habitat naturel et la surexploitation des ressources forestières.
 </t>
         </is>
       </c>
@@ -579,12 +592,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description morphologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Temps de vie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son temps de vie est relativement court.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description morphologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hauteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre peut mesurer une hauteur de 30 à 35 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description morphologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Feuille et fleur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille est composé imparipennée. Les folioles sont opposées et présentent une glande à la base des pétioles appariés. Ses fleurs sont petites, jaune et odorantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[7] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « L'ANGELIN de la Guiane.	
 L'Angelin eſt un arbre qui s'élève fort haut. Son tronc a juſqu'à ſoixante pieds &amp; plus de hauteur, &amp; deux pieds &amp; plus de diamètre. Son écorce eſt cendrée ; ſon obier eſt d'un blanc jaunâtre ; ſon cœur eſt d'un rouge fonce, &amp; en ſe deſſéchant il devient noir. Sa tête eſt garnie d'un nombre de branches conſidérables qui ſe répandent en tout ſens, les unes horiſontales &amp; les autres droites. De ces branches ſortent des rameaux alternes, chargés à leur extrémité de feuilles rangées près a près alternativement. 
 Ses feuilles ſont ailées ou conjuguées, &amp; les conjugaiſons ſont pour l'ordinaire de deux, de trois &amp; de quatre. Elles ſont formées de deux folioles oppoſées, &amp; terminées par une impaire. Entre chaque conjugaiſon on voit, ſur la côte qui les porte, un point glanduleux. Cette côte a environ ſept pouces de longueur ; elle eſt convexe en deſſous, &amp; creuſée d'un ſillon en deſſus; à ſa naiſſance elle à deux stipules qui tombent de bonne heure, &amp; elle eſt charnue. Ce n'eſt qua la diſtance d'environ quatre pouces que ſe trouve la première conjugaiſon des deux premières folioles. Elles ſont ovales, ſèches, vertes en deſſus, blanchâtres &amp; couvertes d'un petit duvet en deſſous. Elles ſe terminent par une pointe mouſſe. Leur longueur eſt de quatre pouces &amp; plus ; leur largeur eſt d'environ deux pouces. Le pédicule de chaque foliole eſt court, arrondi &amp; charnu. 
@@ -595,75 +721,222 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vouacapoua_americana</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Caractéristiques technologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grume
-Cet arbre est d'un diamètre allant de 40 à 100 cm, l'épaisseur de l'aubier est de 2 à 3 cm et il est non flottable.
-Bois
-Son bois est brun très foncé, strié de parenchyme clair[8]. L'aubier bien distinct et le grain moyen.
-Fil et contrefil
-Le fil est droit. Son contrefil est absent.
-Durabilité et traitement de préservation
-Ce bois ne nécessite pas de traitement de préservation en cas d'humidification temporaire et permanentes.
-Mise en œuvre et transformation
-Les effets désafutant de ce bois sont importants. denture pour le sciage, outils d'usinage,
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Grume</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est d'un diamètre allant de 40 à 100 cm, l'épaisseur de l'aubier est de 2 à 3 cm et il est non flottable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractéristiques technologiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois est brun très foncé, strié de parenchyme clair. L'aubier bien distinct et le grain moyen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caractéristiques technologiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fil et contrefil</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fil est droit. Son contrefil est absent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Caractéristiques technologiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Durabilité et traitement de préservation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bois ne nécessite pas de traitement de préservation en cas d'humidification temporaire et permanentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Caractéristiques technologiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mise en œuvre et transformation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets désafutant de ce bois sont importants. denture pour le sciage, outils d'usinage,
 Il a une bonne aptitude au tranchage mais les placages sont plutôt cassants.
-Le séchage du wacapou est le processus par lequel on amène du bois frais taux d'humidité[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vouacapoua_americana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Le séchage du wacapou est le processus par lequel on amène du bois frais taux d'humidité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vouacapoua_americana</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce matériau est durable et peut-être utilisé en charpente mais son aspect attractif et sa rareté le réservent plutôt à l'ébénisterie ou à la menuiserie[2],[4].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce matériau est durable et peut-être utilisé en charpente mais son aspect attractif et sa rareté le réservent plutôt à l'ébénisterie ou à la menuiserie,.
 </t>
         </is>
       </c>
